--- a/public/Export_Customer.xlsx
+++ b/public/Export_Customer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>NAMA</t>
   </si>
@@ -23,34 +23,850 @@
     <t>ALAMAT</t>
   </si>
   <si>
-    <t>Maida Suartini</t>
-  </si>
-  <si>
-    <t>Ki. Daan No. 886, Banjar 19911, Sultra</t>
-  </si>
-  <si>
-    <t>Ani Yolanda</t>
-  </si>
-  <si>
-    <t>Gg. Baing No. 171, Sabang 79882, Sulut</t>
-  </si>
-  <si>
-    <t>Ade Padmasari</t>
-  </si>
-  <si>
-    <t>Gg. Mulyadi No. 741, Cilegon 95354, DKI</t>
-  </si>
-  <si>
-    <t>Ghaliyati Wijayanti</t>
-  </si>
-  <si>
-    <t>Jln. PHH. Mustofa No. 617, Tanjung Pinang 77201, Jambi</t>
-  </si>
-  <si>
-    <t>Fitriani Suryatmi</t>
-  </si>
-  <si>
-    <t>Ki. Yos Sudarso No. 857, Bogor 90810, Babel</t>
+    <t>Toko Solik(jln.raya trawas)</t>
+  </si>
+  <si>
+    <t>Raya Trawas</t>
+  </si>
+  <si>
+    <t>Toko Cahaya Anugerah</t>
+  </si>
+  <si>
+    <t>Karangdiyeng/kutorejo</t>
+  </si>
+  <si>
+    <t>toko AFIRDA(Pandan/jl.raya tirtowening)</t>
+  </si>
+  <si>
+    <t>pandan/jl.raya tirtowening</t>
+  </si>
+  <si>
+    <t>Toko Rafli(sekargadung)</t>
+  </si>
+  <si>
+    <t>Sekargadung</t>
+  </si>
+  <si>
+    <t>Pak Deri/TRAWAS</t>
+  </si>
+  <si>
+    <t>Trawas</t>
+  </si>
+  <si>
+    <t>Toko Pujiono(Psr.dlanggu)</t>
+  </si>
+  <si>
+    <t>Pasar Dlanggu</t>
+  </si>
+  <si>
+    <t>Al-Barokah mart(jln.jolotundo/kesemen)</t>
+  </si>
+  <si>
+    <t>Jl.Jolotundo, kesemen</t>
+  </si>
+  <si>
+    <t>MBAK NEILI/SMPN 2 PUNGGING</t>
+  </si>
+  <si>
+    <t>SMPN 2 PUNGGING</t>
+  </si>
+  <si>
+    <t>mama ana</t>
+  </si>
+  <si>
+    <t>mojosari</t>
+  </si>
+  <si>
+    <t>Tk.BUDI KARYA/Ms.IQBAL(BANGSAL)</t>
+  </si>
+  <si>
+    <t>Dsn.Majero RT 04/RW 01 Ds.Jumeneng-Bangsal</t>
+  </si>
+  <si>
+    <t>JOKO(PSR.TANGUNAN)</t>
+  </si>
+  <si>
+    <t>PSR.TANGUNAN</t>
+  </si>
+  <si>
+    <t>Toko Anis(jl.raya jolotundo/KUTOGIRANG)</t>
+  </si>
+  <si>
+    <t>Kutogirang</t>
+  </si>
+  <si>
+    <t>ABAH SUDARMAJI</t>
+  </si>
+  <si>
+    <t>Tk.BERKAH/DLANGGU (MB.SILFIA)</t>
+  </si>
+  <si>
+    <t>Dsn.Bendo Lor/ Ds.Kalen (Dlanggu)</t>
+  </si>
+  <si>
+    <t>TK. DANI /psr. bangsal</t>
+  </si>
+  <si>
+    <t>Pasar bangsal/ Ds.ngastemi</t>
+  </si>
+  <si>
+    <t>hj.iin/karangjeruk jatirejo</t>
+  </si>
+  <si>
+    <t>Sumberhaji,Karangjeruk/kec.Jatirejo</t>
+  </si>
+  <si>
+    <t>Toko Warsita(jl.raya jolotundo/kutogirang)</t>
+  </si>
+  <si>
+    <t>jl.Raya Jolotundo/Kutogirang</t>
+  </si>
+  <si>
+    <t>MAS WAWAN/ DLANGGU</t>
+  </si>
+  <si>
+    <t>Dsn.Bareng / Talok</t>
+  </si>
+  <si>
+    <t>toko AL FAWAR</t>
+  </si>
+  <si>
+    <t>PSR.PANDAN/ABIDIN</t>
+  </si>
+  <si>
+    <t>Tk.HS/pandan</t>
+  </si>
+  <si>
+    <t>Pandan</t>
+  </si>
+  <si>
+    <t>Tk.Barokah/Hj.Muslikhah</t>
+  </si>
+  <si>
+    <t>Sawo/Kutorejo</t>
+  </si>
+  <si>
+    <t>ko hendra/damarus</t>
+  </si>
+  <si>
+    <t>krian</t>
+  </si>
+  <si>
+    <t>toko HENY(pandan/bendungan jati)</t>
+  </si>
+  <si>
+    <t>pandan/bendungan jati</t>
+  </si>
+  <si>
+    <t>MB LAILI/ Psr.Bangsal</t>
+  </si>
+  <si>
+    <t>Sumber Tebu/ Bangsal</t>
+  </si>
+  <si>
+    <t>Toko RISCHY(mojosulur)</t>
+  </si>
+  <si>
+    <t>Mojosulur</t>
+  </si>
+  <si>
+    <t>Tk.Mbak Sah(sawo-kutorejo)</t>
+  </si>
+  <si>
+    <t>Sawo-Kutorejo</t>
+  </si>
+  <si>
+    <t>Bu.SUPATMI/ SAMPANG</t>
+  </si>
+  <si>
+    <t>Sampang/ Sangrahan</t>
+  </si>
+  <si>
+    <t>AK snack(jln.raya pandan-pacet)</t>
+  </si>
+  <si>
+    <t>jalan raya pandan-pacet</t>
+  </si>
+  <si>
+    <t>TOKO SJS (jln.raya mjsr-pacet)</t>
+  </si>
+  <si>
+    <t>Raya Pacet</t>
+  </si>
+  <si>
+    <t>TOKO KAWITAN JAYA</t>
+  </si>
+  <si>
+    <t>toko BERKAH ABADI/kalikatir-pohjejer</t>
+  </si>
+  <si>
+    <t>desa kalikatir/pohjejer</t>
+  </si>
+  <si>
+    <t>MBAK RUNI/ds.mojogeneng(jatirejo)</t>
+  </si>
+  <si>
+    <t>desa mojogeneng/jatirejo</t>
+  </si>
+  <si>
+    <t>toko NATHAN EKA/gondang</t>
+  </si>
+  <si>
+    <t>gondang/pacet</t>
+  </si>
+  <si>
+    <t>Tk.Mas'ud (pandan/jl.raya tirtowening)</t>
+  </si>
+  <si>
+    <t>Jln.Raya Tirtowening pacet</t>
+  </si>
+  <si>
+    <t>Tk.Ririn(pandan/bendungan jati)</t>
+  </si>
+  <si>
+    <t>Bendungan jati</t>
+  </si>
+  <si>
+    <t>MBAK FITRI/PANDAN(closed)</t>
+  </si>
+  <si>
+    <t>PANDAN</t>
+  </si>
+  <si>
+    <t>MAS DANANG/kopsis SMA1MOJOSARI</t>
+  </si>
+  <si>
+    <t>SMA 1 MOJOSARI</t>
+  </si>
+  <si>
+    <t>Mbak Yun / Ps.Trawas</t>
+  </si>
+  <si>
+    <t>Pasar Trawas</t>
+  </si>
+  <si>
+    <t>mbak novi(mojosari)</t>
+  </si>
+  <si>
+    <t>TOKO MRIKI/ploso sari</t>
+  </si>
+  <si>
+    <t>PLOSO SARI</t>
+  </si>
+  <si>
+    <t>NOVI/AZURA STORE(pugeran)</t>
+  </si>
+  <si>
+    <t>sawahan-pugeran</t>
+  </si>
+  <si>
+    <t>Tk.SINAR(wonoploso)</t>
+  </si>
+  <si>
+    <t>Wonoploso, Gondang</t>
+  </si>
+  <si>
+    <t>mbak nia/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>psr.pohjejer</t>
+  </si>
+  <si>
+    <t>AMERTA JAYA</t>
+  </si>
+  <si>
+    <t>LEBAKSARI</t>
+  </si>
+  <si>
+    <t>TOKO SITI/TOIB(sumengko/jatirejo)</t>
+  </si>
+  <si>
+    <t>sumengko/jatirejo</t>
+  </si>
+  <si>
+    <t>MBAK YULI/WINDUREJO(KUTOREJO)</t>
+  </si>
+  <si>
+    <t>KENJORO RT2.RW 2(WINDUREJO/KUTOREJO)</t>
+  </si>
+  <si>
+    <t>TOKO CORY/KUTOREJO</t>
+  </si>
+  <si>
+    <t>majero/kutorejo</t>
+  </si>
+  <si>
+    <t>TOKO ASKA/ds,mbah gepuk</t>
+  </si>
+  <si>
+    <t>mbah gepuk</t>
+  </si>
+  <si>
+    <t>Mbak Ning (Satumi)</t>
+  </si>
+  <si>
+    <t>Psr.Pohjejer</t>
+  </si>
+  <si>
+    <t>Hj.sum(sebelah zulfa)</t>
+  </si>
+  <si>
+    <t>Pohjejer</t>
+  </si>
+  <si>
+    <t>Kantin AL-FARIZQI</t>
+  </si>
+  <si>
+    <t>Pondok Pesantren A-Hidayah</t>
+  </si>
+  <si>
+    <t>KOPSIS SMAN 1 PACET</t>
+  </si>
+  <si>
+    <t>Mas Andi/psr.perning</t>
+  </si>
+  <si>
+    <t>Pasar Perning</t>
+  </si>
+  <si>
+    <t>Tk.TASYA/ds.mbah gepuk</t>
+  </si>
+  <si>
+    <t>Ds.MBAH GEPUK</t>
+  </si>
+  <si>
+    <t>MANSYUR/ ADISONO</t>
+  </si>
+  <si>
+    <t>MOJOSARI</t>
+  </si>
+  <si>
+    <t>Bu.NUNUK/ ds.mbahgepuk</t>
+  </si>
+  <si>
+    <t>(Mbah Gepuk)-Wonorejo</t>
+  </si>
+  <si>
+    <t>Mbak Siti/maksum(psr.bangsal)</t>
+  </si>
+  <si>
+    <t>Pasar Bangsal</t>
+  </si>
+  <si>
+    <t>fadhil</t>
+  </si>
+  <si>
+    <t>Hj.Yanti/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>PASAR POHJEJER(sebelah hj.satumi)</t>
+  </si>
+  <si>
+    <t>Hj.LALIK/ psr.pohjejer wetan</t>
+  </si>
+  <si>
+    <t>Psr.POHJEJER</t>
+  </si>
+  <si>
+    <t>Tk.Barokah (pom mini)</t>
+  </si>
+  <si>
+    <t>Desa Pohkecik/Dlanggu</t>
+  </si>
+  <si>
+    <t>Tk.Syafa'ah Barokah</t>
+  </si>
+  <si>
+    <t>Kutorejo</t>
+  </si>
+  <si>
+    <t>TK.AMBIYO/pacet</t>
+  </si>
+  <si>
+    <t>Bunderan, pacet</t>
+  </si>
+  <si>
+    <t>MAS KHOIRON/NOGOSARI</t>
+  </si>
+  <si>
+    <t>NOGOSARI</t>
+  </si>
+  <si>
+    <t>Bu Lilis</t>
+  </si>
+  <si>
+    <t>Mojorejo, Gang.3</t>
+  </si>
+  <si>
+    <t>KAMPRET/PSR.PANDAN</t>
+  </si>
+  <si>
+    <t>PASAR PANDAN</t>
+  </si>
+  <si>
+    <t>PAK HERI KUSDIYANTO/SEDURI ELOR</t>
+  </si>
+  <si>
+    <t>SUMBER REJEKI/DEPAN PSR.PANDAN</t>
+  </si>
+  <si>
+    <t>KIKO SNACK/TANGUNAN</t>
+  </si>
+  <si>
+    <t>MBAK INDAH/NJEROK WANGI(POTONG RAMBUT)</t>
+  </si>
+  <si>
+    <t>NJEROK WANGI</t>
+  </si>
+  <si>
+    <t>MAS BANDI/psr.PUGERAN</t>
+  </si>
+  <si>
+    <t>PASAR PUGERAN</t>
+  </si>
+  <si>
+    <t>MBAK ANA/KUTOREJO</t>
+  </si>
+  <si>
+    <t>PSR.KUTOREJO</t>
+  </si>
+  <si>
+    <t>MBAK LIA/DEPAN KORAMIL PURI</t>
+  </si>
+  <si>
+    <t>DEPAN KORAMIL PURI</t>
+  </si>
+  <si>
+    <t>Hj.SUM /psr.pohjejer</t>
+  </si>
+  <si>
+    <t>Psr .POHJEJER</t>
+  </si>
+  <si>
+    <t>PAK MAYONO</t>
+  </si>
+  <si>
+    <t>JURANG PELEN</t>
+  </si>
+  <si>
+    <t>Mbak sri/pohjejer</t>
+  </si>
+  <si>
+    <t>POHJEJER</t>
+  </si>
+  <si>
+    <t>MONATA 05</t>
+  </si>
+  <si>
+    <t>PENDOPO</t>
+  </si>
+  <si>
+    <t>Tk.Abah Tanus/Bu julaikah</t>
+  </si>
+  <si>
+    <t>Sruni, Banjartanggul</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>LEBAKSONO</t>
+  </si>
+  <si>
+    <t>MBAK HERMIN/RUKO PLOSO</t>
+  </si>
+  <si>
+    <t>RUKO PLOSO/DLANGGU</t>
+  </si>
+  <si>
+    <t>MBAK YANTI/MEJA(PSR.POHJEJER)</t>
+  </si>
+  <si>
+    <t>PSR.POHJEJER</t>
+  </si>
+  <si>
+    <t>TOKO NANAS JAYA/PURI</t>
+  </si>
+  <si>
+    <t>JL.TAMBAK SURUH(PURI-MOJOKERTO)</t>
+  </si>
+  <si>
+    <t>ABAH MAT/PSR.PANDAN</t>
+  </si>
+  <si>
+    <t>MBAK SUSI/MENANGGAL</t>
+  </si>
+  <si>
+    <t>MENANGGAL/MOJOSARI</t>
+  </si>
+  <si>
+    <t>TK.ANYAR/PACET</t>
+  </si>
+  <si>
+    <t>Perum Indraprasta</t>
+  </si>
+  <si>
+    <t>MBAK TIE/ROTI/POHJEJER</t>
+  </si>
+  <si>
+    <t>MBAK IDA/PSR.PACET</t>
+  </si>
+  <si>
+    <t>PSR.PACET</t>
+  </si>
+  <si>
+    <t>CUSTOMER UKNOWN</t>
+  </si>
+  <si>
+    <t>BELANJA DIGUDANG</t>
+  </si>
+  <si>
+    <t>KURO(LEO)</t>
+  </si>
+  <si>
+    <t>KOPSIS MAN(awang2)</t>
+  </si>
+  <si>
+    <t>KONSUMSI PRIBADI</t>
+  </si>
+  <si>
+    <t>GUDANG TARE MAKMUR</t>
+  </si>
+  <si>
+    <t>Tk.Intan/trawas</t>
+  </si>
+  <si>
+    <t>Raya trawas</t>
+  </si>
+  <si>
+    <t>MAS ZAINUDIN/POHJEJER</t>
+  </si>
+  <si>
+    <t>Tk.Dua Putra/ DLANGGU</t>
+  </si>
+  <si>
+    <t>Dlanggu</t>
+  </si>
+  <si>
+    <t>BU ANA(BUMI BRUBUH)</t>
+  </si>
+  <si>
+    <t>BUMI BRUBUH/JLN.MOJOPAHIT</t>
+  </si>
+  <si>
+    <t>BU TANTY/TK.LATAHZAN</t>
+  </si>
+  <si>
+    <t>PASAR PACET</t>
+  </si>
+  <si>
+    <t>MAS YONO/PSR.SAWAHAN(MOJOSARI)</t>
+  </si>
+  <si>
+    <t>PSR.SAWAHAN/MOJOSARI</t>
+  </si>
+  <si>
+    <t>BU PUR/KARANGPOH</t>
+  </si>
+  <si>
+    <t>Karangpoh, mojosari</t>
+  </si>
+  <si>
+    <t>Hj.JUMAROH/psr,pandan</t>
+  </si>
+  <si>
+    <t>H.AFFANDI/pertigaan sanggrahan</t>
+  </si>
+  <si>
+    <t>PERTIGAAN SANGGRAHAN</t>
+  </si>
+  <si>
+    <t>MAS FERY/KUTOREJO</t>
+  </si>
+  <si>
+    <t>KUTOREJO</t>
+  </si>
+  <si>
+    <t>TOKO M2M/CIK NIEK</t>
+  </si>
+  <si>
+    <t>MOJOKERTO</t>
+  </si>
+  <si>
+    <t>MBAK TUTUT/psr.pacet</t>
+  </si>
+  <si>
+    <t>CAK SLIMIN</t>
+  </si>
+  <si>
+    <t>JOMBANG</t>
+  </si>
+  <si>
+    <t>MBAK KUN/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>PASAR POHJEJER</t>
+  </si>
+  <si>
+    <t>WOKO</t>
+  </si>
+  <si>
+    <t>TOKO IKA/PANJER</t>
+  </si>
+  <si>
+    <t>PANJER/MOJOSARI</t>
+  </si>
+  <si>
+    <t>MAS KOMSUN</t>
+  </si>
+  <si>
+    <t>MOJOSULUR</t>
+  </si>
+  <si>
+    <t>LASIATI</t>
+  </si>
+  <si>
+    <t>BU ASMAH/psr.trawas</t>
+  </si>
+  <si>
+    <t>PASAR KESIMAN/TRAWAS</t>
+  </si>
+  <si>
+    <t>MAS YAYAN/psr.trawas</t>
+  </si>
+  <si>
+    <t>BU NING/psr.trawas</t>
+  </si>
+  <si>
+    <t>TK.AROFAH/psr.trawas</t>
+  </si>
+  <si>
+    <t>TK.LIZZA AZIZAH MART</t>
+  </si>
+  <si>
+    <t>DLANGGU</t>
+  </si>
+  <si>
+    <t>BU NUR/dlanggu</t>
+  </si>
+  <si>
+    <t>TK.ARRAZZAQ</t>
+  </si>
+  <si>
+    <t>BU SUCI/psr.pacet</t>
+  </si>
+  <si>
+    <t>TK.JAGO/PACET</t>
+  </si>
+  <si>
+    <t>MBAK LILIK/PACET</t>
+  </si>
+  <si>
+    <t>TK.HIDAYAH/psr.pacet</t>
+  </si>
+  <si>
+    <t>BU TIE/psr,pacet</t>
+  </si>
+  <si>
+    <t>MBAK IKA/WAWAN</t>
+  </si>
+  <si>
+    <t>MAS IMRON/KSP</t>
+  </si>
+  <si>
+    <t>WARUGUNUNG/PANDAN</t>
+  </si>
+  <si>
+    <t>BU ILHAM/centong</t>
+  </si>
+  <si>
+    <t>CENTONG/PANDAN</t>
+  </si>
+  <si>
+    <t>MBAK FENI/GREENDMART</t>
+  </si>
+  <si>
+    <t>BU DIYONO</t>
+  </si>
+  <si>
+    <t>TK.SUMBER REJEKI/POM MINI</t>
+  </si>
+  <si>
+    <t>DEPAN RS.GLAGA</t>
+  </si>
+  <si>
+    <t>PAK DOYOK/pandan</t>
+  </si>
+  <si>
+    <t>DS.SUMBERGAYAM/PANDAN</t>
+  </si>
+  <si>
+    <t>MBAK SANTI/psr.bangsal</t>
+  </si>
+  <si>
+    <t>PASAR BANGSAL</t>
+  </si>
+  <si>
+    <t>TK.SUMBER LANCAR/Psr,BANGSAL</t>
+  </si>
+  <si>
+    <t>MAK PIN/psr.bangsal</t>
+  </si>
+  <si>
+    <t>MBAK SAH/PSR.BANGSAL</t>
+  </si>
+  <si>
+    <t>Hj.KANA/psr.bangsal</t>
+  </si>
+  <si>
+    <t>Hj.TASYA/psr,bangsal</t>
+  </si>
+  <si>
+    <t>MAS AZIZ/psr.bangsal</t>
+  </si>
+  <si>
+    <t>MAS QISOM/psr.bangsal</t>
+  </si>
+  <si>
+    <t>Hj.ENI/psr.bangsal</t>
+  </si>
+  <si>
+    <t>BU KOES/psr.bangsal</t>
+  </si>
+  <si>
+    <t>BU KAR/psr.bangsal</t>
+  </si>
+  <si>
+    <t>TOKO KAJI/PUGERAN</t>
+  </si>
+  <si>
+    <t>TK.EKA DWI /PSR.TANGUNAN(closed)</t>
+  </si>
+  <si>
+    <t>PASAR TANGUNAN</t>
+  </si>
+  <si>
+    <t>MAS YONO/PSR.TANGUNAN</t>
+  </si>
+  <si>
+    <t>HJ.UM/PSR.TANGUNAN</t>
+  </si>
+  <si>
+    <t>TK.ALMAIRA/DLANGGU(closed)</t>
+  </si>
+  <si>
+    <t>TK.CHERYL</t>
+  </si>
+  <si>
+    <t>H.TOHIR/desa sawo</t>
+  </si>
+  <si>
+    <t>DESA SAWO</t>
+  </si>
+  <si>
+    <t>CAK TONI/psr.kutorejo</t>
+  </si>
+  <si>
+    <t>PASAR KUTOREJO</t>
+  </si>
+  <si>
+    <t>CAK LAN/psr.kutorejo</t>
+  </si>
+  <si>
+    <t>H.YUSAK/psr.kutorejo</t>
+  </si>
+  <si>
+    <t>Hj.JUWARIYAH/psr.kutorejo</t>
+  </si>
+  <si>
+    <t>TK.DUAPUTRI/ JATIDUKUH</t>
+  </si>
+  <si>
+    <t>JATIDUKUH/POHJEJER</t>
+  </si>
+  <si>
+    <t>MBAK YAYUK/ds.bacem,pohjejer</t>
+  </si>
+  <si>
+    <t>BACEM/POHJEJER</t>
+  </si>
+  <si>
+    <t>PAK ALI/oronk2(pohjejer)</t>
+  </si>
+  <si>
+    <t>ORONK2/POHJEJER</t>
+  </si>
+  <si>
+    <t>TOKO ARDI/JATIREJO</t>
+  </si>
+  <si>
+    <t>JATIREJO/POHJEJER</t>
+  </si>
+  <si>
+    <t>MBAK RINI/psr.pugeran</t>
+  </si>
+  <si>
+    <t>MBAK SUS/PSR.PUGERAN</t>
+  </si>
+  <si>
+    <t>MAK SOEM/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>Hj.ALFIAH/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>ZULFA/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>Hj.ROH/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>Hj.SATUMI/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>H.FAWZI/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>MBAK VITA/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>Hj.WIWIN/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>Hj.LILIK/POHJEJER</t>
+  </si>
+  <si>
+    <t>Hj.SATUPAH/psr.pohjejer</t>
+  </si>
+  <si>
+    <t>MBAK KATIN/psr,pohjejer</t>
+  </si>
+  <si>
+    <t>H.SUDAR/ psr.pandan</t>
+  </si>
+  <si>
+    <t>Hj.AM/psr.pandan</t>
+  </si>
+  <si>
+    <t>Hj.AINI/psr.pandan</t>
+  </si>
+  <si>
+    <t>Hj.JAFAR(closed)</t>
+  </si>
+  <si>
+    <t>Hj.SAH/psr.pandan</t>
+  </si>
+  <si>
+    <t>MBAK YUNI/psr.pandan</t>
+  </si>
+  <si>
+    <t>NINIK/psr,pandan</t>
+  </si>
+  <si>
+    <t>bayu</t>
+  </si>
+  <si>
+    <t>Sooko</t>
   </si>
 </sst>
 </file>
@@ -420,10 +1236,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,6 +1290,1366 @@
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
